--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3616969.742610507</v>
+        <v>3667602.730163674</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2153448.901246008</v>
+        <v>2104816.956126889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2187938.88128454</v>
+        <v>826053.9034197835</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6124107.761099725</v>
+        <v>6430670.264574104</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>203.8567878221036</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>26.94368671266144</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>157.2276889092496</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>34.5657094355007</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>159.8676876456814</v>
       </c>
       <c r="E5" t="n">
-        <v>338.6773891444291</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -911,7 +913,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -950,16 +952,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291307</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>152.5952327633135</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.7828199682119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>113.6245906483782</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>53.32334116035378</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>169.0545200242716</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.8768136769496</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6307619047654</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>331.8044784467617</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>371.4181433795436</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>283.2292353518409</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>99.34076116112654</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>127.2354349310267</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>183.6526118388442</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5822176924141</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>301.0727566261835</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>329.6760601040621</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>146.3342479584171</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>85.38652159653435</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
-        <v>163.1749384019428</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>195.7488767361149</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>244.9714192631848</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>225.7065671500507</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
-        <v>242.8841134708009</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1615,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1624,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>85.21125597844845</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>133.1537684282043</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,7 +1824,7 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>42.96247126414337</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T17" t="n">
-        <v>56.49943888151655</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.36466403007152</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>237.4543145584468</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U20" t="n">
-        <v>159.2039277954309</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77220663497643</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.50262867523652</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>42.96247126414337</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.8571450340435</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>159.2039277954309</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>106.7966485049595</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>340.1115083572997</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>332.8654565851155</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>356.3472041883388</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>352.6528380598937</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>264.4639300321911</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.85573360161047</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>164.8873065191943</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>196.8169123727642</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>282.3074513065336</v>
+        <v>99.46191014565997</v>
       </c>
       <c r="W26" t="n">
-        <v>310.9107547844122</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
-        <v>329.1797891192905</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>40.7936015826654</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>110.1932234645657</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>144.4096330822929</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>176.9835714164651</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>226.2061139435349</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>206.9412618304008</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
-        <v>224.118808151151</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>175.3612290978635</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>99.46191014565997</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>37.77220663497643</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799133</v>
       </c>
       <c r="E35" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>99.46191014565997</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>273.297770207079</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>61.76140096484033</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>59.93249105380451</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>42.96247126414337</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.8571450340435</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
-        <v>143.0229744112361</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>273.297770207079</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>61.76140096484033</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>59.93249105380451</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>37.77220663497643</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.4985237799665</v>
+        <v>322.2802739911199</v>
       </c>
       <c r="C41" t="n">
-        <v>295.2524720077822</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D41" t="n">
-        <v>287.5954430211825</v>
+        <v>191.1780799921183</v>
       </c>
       <c r="E41" t="n">
-        <v>304.5664151603045</v>
+        <v>324.3481653714579</v>
       </c>
       <c r="F41" t="n">
-        <v>318.7342196110055</v>
+        <v>338.515969822159</v>
       </c>
       <c r="G41" t="n">
-        <v>315.0398534825604</v>
+        <v>334.8216036937139</v>
       </c>
       <c r="H41" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6944667292003</v>
+        <v>264.4762169403538</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>293.0795204182324</v>
       </c>
       <c r="X41" t="n">
-        <v>257.9890698311797</v>
+        <v>311.3485547531108</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>318.3162777254419</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.36466403007182</v>
+        <v>109.1464142412253</v>
       </c>
       <c r="C43" t="n">
-        <v>74.51179228035423</v>
+        <v>94.29354249150771</v>
       </c>
       <c r="D43" t="n">
-        <v>60.08550749219354</v>
+        <v>47.67400062155946</v>
       </c>
       <c r="E43" t="n">
-        <v>60.01194954507307</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>61.76140096484033</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.58023888723247</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>59.93249105380451</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>37.77220663497644</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>106.7966485049597</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T43" t="n">
-        <v>139.3705868391318</v>
+        <v>159.1523370502852</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5931293662016</v>
+        <v>208.3748795773551</v>
       </c>
       <c r="V43" t="n">
-        <v>169.3282772530676</v>
+        <v>189.110027464221</v>
       </c>
       <c r="W43" t="n">
-        <v>186.5058235738177</v>
+        <v>206.2875737849712</v>
       </c>
       <c r="X43" t="n">
-        <v>137.7482445205303</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.8896660972066</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>322.2802739911199</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>104.0756761416823</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>324.3481653714579</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>334.8216036937139</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660113</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065844</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2683975607423</v>
+        <v>264.4762169403538</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>293.0795204182324</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>311.3485547531108</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>318.3162777254419</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>68.31347356331413</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>94.29354249150771</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334743</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622654</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>81.54315117599381</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>92.36198909838595</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495799</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.55395684612992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.45245521058584</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.1523370502852</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>208.3748795773551</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>189.110027464221</v>
       </c>
       <c r="W46" t="n">
-        <v>83.2714943313341</v>
+        <v>206.2875737849712</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1396.789931183585</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C2" t="n">
-        <v>1396.789931183585</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D2" t="n">
-        <v>1396.789931183585</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E2" t="n">
-        <v>994.2064063001294</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F2" t="n">
-        <v>577.3119678301072</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4328,13 +4330,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M2" t="n">
         <v>1049.610128415868</v>
@@ -4352,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2300.439746198398</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183585</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="X2" t="n">
-        <v>1396.789931183585</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="Y2" t="n">
-        <v>1396.789931183585</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>272.5108437565973</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>272.5108437565973</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631995</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4510,16 +4512,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S4" t="n">
-        <v>2241.747515709757</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T4" t="n">
-        <v>2241.747515709757</v>
+        <v>2206.8326576941</v>
       </c>
       <c r="U4" t="n">
-        <v>1956.308723951658</v>
+        <v>1921.393865936001</v>
       </c>
       <c r="V4" t="n">
         <v>1921.393865936001</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.888704297768</v>
+        <v>1177.189793764514</v>
       </c>
       <c r="C5" t="n">
-        <v>1681.888704297768</v>
+        <v>1177.189793764514</v>
       </c>
       <c r="D5" t="n">
-        <v>1681.888704297768</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E5" t="n">
-        <v>1339.790331424607</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
@@ -4577,7 +4579,7 @@
         <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
         <v>2365.64850507718</v>
@@ -4598,19 +4600,19 @@
         <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>1681.888704297768</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V5" t="n">
-        <v>1681.888704297768</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W5" t="n">
-        <v>1681.888704297768</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.888704297768</v>
+        <v>1177.189793764514</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.888704297768</v>
+        <v>1177.189793764514</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4646,31 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>1374.529131354181</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N6" t="n">
-        <v>1960.027136360783</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
         <v>2206.800784875113</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7856656383638</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7856656383638</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7856656383638</v>
+        <v>557.4078277138449</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7856656383638</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7856656383638</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G7" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
         <v>77.69124027544166</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7856656383638</v>
+        <v>713.0409408113302</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339.790331424607</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.790331424607</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4807,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>265.4829774041385</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1995.123461725538</v>
       </c>
       <c r="W8" t="n">
-        <v>1790.14300127204</v>
+        <v>1995.123461725538</v>
       </c>
       <c r="X8" t="n">
-        <v>1736.281040504006</v>
+        <v>1995.123461725538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1339.790331424607</v>
+        <v>1995.123461725538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.1697913139477</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>233.1697913139477</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>233.1697913139477</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>233.1697913139477</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>233.1697913139477</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>589.1399514439072</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>418.377810005249</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>418.377810005249</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>418.377810005249</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>418.377810005249</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.377810005249</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1512.827559411902</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C11" t="n">
-        <v>1157.644971629311</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D11" t="n">
-        <v>1157.644971629311</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.644971629311</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F11" t="n">
-        <v>822.4889327941983</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G11" t="n">
-        <v>447.3190909966795</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H11" t="n">
-        <v>161.2289542776483</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>205.5345239934193</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>564.5168800208811</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>1057.83717173941</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1603.83807178399</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2131.649355421453</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2571.688956313781</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2919.876448445303</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2915.716912885087</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2730.209224158982</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2512.449408308059</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2208.335512726056</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W11" t="n">
-        <v>1875.329391408821</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X11" t="n">
-        <v>1875.329391408821</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y11" t="n">
-        <v>1875.329391408821</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>860.2507342246222</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C12" t="n">
-        <v>709.5965037847144</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D12" t="n">
-        <v>579.5075364061947</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>443.0610455170824</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>318.6292394002142</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
-        <v>198.5694214720787</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>110.2720050726796</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>173.9997333043186</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>173.9997333043186</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>657.5658192026318</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.713543197958</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1222.713543197958</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1739.233825788939</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2144.855194505336</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
-        <v>2379.220286060227</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R12" t="n">
-        <v>2355.303242958291</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S12" t="n">
-        <v>2220.37256585816</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T12" t="n">
-        <v>2043.388754057069</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U12" t="n">
-        <v>1833.325610735711</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V12" t="n">
-        <v>1610.785609106778</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W12" t="n">
-        <v>1380.668363240065</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X12" t="n">
-        <v>1191.361285590076</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y12" t="n">
-        <v>1012.047068665584</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.1337627982622</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>147.1337627982622</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>147.1337627982622</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>147.1337627982622</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>147.1337627982622</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>60.88475108459117</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>60.88475108459117</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>68.34786321871364</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>187.4197590602155</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>388.7842536655752</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>612.3126867353992</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>832.7391754981684</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1032.680797271436</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1189.793817779575</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1230.452868881186</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1230.452868881186</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1065.629698778213</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>867.9035606609253</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>620.4576826173043</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>392.4712511526066</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>147.1337627982622</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>147.1337627982622</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.1337627982622</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1333.192285818605</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C14" t="n">
-        <v>1034.957465608724</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D14" t="n">
-        <v>744.4570181125804</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>744.4570181125804</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>422.5032609297465</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>104.281186704938</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>104.281186704938</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>145.0500696367259</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>504.0324256641878</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>997.3527173827166</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
-        <v>1543.353617427297</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2071.164901064759</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2511.204501957088</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2859.39199408861</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2972.664680457798</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2844.104759304403</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U14" t="n">
-        <v>2758.032783568596</v>
+        <v>2816.584415774169</v>
       </c>
       <c r="V14" t="n">
-        <v>2510.866655559303</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W14" t="n">
-        <v>2234.808301814779</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="X14" t="n">
-        <v>1940.296378035024</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y14" t="n">
-        <v>1638.746350242814</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>860.2507342246222</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C15" t="n">
-        <v>709.5965037847144</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D15" t="n">
-        <v>579.5075364061947</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>443.0610455170824</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>318.6292394002142</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
-        <v>198.5694214720787</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>110.2720050726796</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58429673369261</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58429673369261</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1503826320059</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M15" t="n">
-        <v>1206.922032258687</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1862.700003469246</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2379.220286060227</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.220286060227</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
-        <v>2379.220286060227</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R15" t="n">
-        <v>2355.303242958291</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S15" t="n">
-        <v>2220.37256585816</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T15" t="n">
-        <v>2043.388754057069</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U15" t="n">
-        <v>1833.325610735711</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V15" t="n">
-        <v>1610.785609106778</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W15" t="n">
-        <v>1380.668363240065</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X15" t="n">
-        <v>1191.361285590076</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y15" t="n">
-        <v>1012.047068665584</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>491.849990335576</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>416.5855536887535</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>355.8931218784566</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>295.2749910248475</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>232.8897375250087</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>159.5763649116426</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>99.03849516032494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>124.162370216727</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>299.0487730562422</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>556.2277746596153</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>835.5707147274527</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1111.811710488235</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1367.567839259516</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1580.495366765668</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1676.968924865292</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
-        <v>1648.008616785058</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1540.133214254795</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1399.354843710218</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1208.856733239307</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1037.81806934732</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>849.4283485656858</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>710.2887076358572</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>582.1173277396889</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1871.211875180718</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1572.977054970837</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1282.476607474693</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>974.8337638784258</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F17" t="n">
-        <v>652.8800066955919</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>334.6579324707834</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>105.5155633244624</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>3048.886244921416</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>3048.886244921416</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>3048.886244921416</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2772.827891176892</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.315967397137</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>2176.765939604927</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>2146.089571124861</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>300.2831496757665</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>557.4621512791396</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>836.805091346977</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>1113.046087107759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>1368.802215879041</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1581.729743385192</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>1210.091109858831</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>850.66272518521</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>711.5230842553814</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.351704359213</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1520.303839177572</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1222.069018967691</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>931.5685714715466</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>623.9257278752796</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>301.9719706924457</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2945.144336927563</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.97820891827</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2421.919855173746</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2127.407931393991</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1825.85790360178</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>417.819930308278</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>357.1274984979811</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>234.1241141445332</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>300.2831496757665</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>557.4621512791394</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>836.805091346977</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>1113.04608710776</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>1368.802215879041</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1581.729743385192</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>1210.091109858832</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>1039.052445966845</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>850.6627251852102</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1871.211875180718</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1572.977054970837</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1282.476607474693</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>974.8337638784258</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F23" t="n">
-        <v>652.8800066955919</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>334.6579324707834</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>105.5155633244624</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3034.383511434015</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2905.82359028062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2745.011542002408</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2497.845413993115</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2221.78706024859</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>1927.275136468836</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1927.275136468836</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>300.2831496757665</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>557.4621512791396</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
-        <v>836.805091346977</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>1113.046087107759</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>1368.802215879041</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1581.729743385192</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>1210.091109858832</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>850.6627251852103</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1381.643803325872</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C26" t="n">
-        <v>1045.416069401513</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D26" t="n">
-        <v>1045.416069401513</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E26" t="n">
-        <v>1045.416069401513</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F26" t="n">
-        <v>685.4693985042011</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G26" t="n">
-        <v>329.2544105649146</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H26" t="n">
         <v>62.11912770411553</v>
@@ -6251,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3022.263725002129</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2855.710890134256</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2656.905928141565</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2371.746886417794</v>
+        <v>3005.489809301069</v>
       </c>
       <c r="W26" t="n">
-        <v>2057.695618958792</v>
+        <v>2729.431455556545</v>
       </c>
       <c r="X26" t="n">
-        <v>1725.190781464559</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y26" t="n">
-        <v>1725.190781464559</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>207.7175872278004</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>691.2836731261136</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M27" t="n">
-        <v>1319.055322752795</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N27" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
         <v>1974.833293963354</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>214.6310721962682</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C28" t="n">
-        <v>214.6310721962682</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D28" t="n">
-        <v>214.6310721962682</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E28" t="n">
-        <v>214.6310721962682</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>173.4254140319597</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G28" t="n">
-        <v>62.11912770411553</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411553</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>88.15989210469138</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>225.8094402126466</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>445.7515870844597</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M28" t="n">
-        <v>687.8576724207371</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>926.8618134499596</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O28" t="n">
-        <v>1145.381087489681</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>1321.071760264273</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>1380.308463632337</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>1380.308463632337</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>1234.440147387597</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>1055.668863128541</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>827.1778389431524</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
-        <v>618.146261336687</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W28" t="n">
-        <v>391.7636268405748</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6310721962682</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.6310721962682</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6540,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M30" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N30" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
         <v>357.1274984979811</v>
@@ -6631,31 +6633,31 @@
         <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R31" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T31" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
         <v>850.6627251852102</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1827.815439560371</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
-        <v>1529.58061935049</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>291.2614968504365</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>3005.489809301069</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
-        <v>2729.431455556545</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2434.91953177679</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>2133.36950398458</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="33">
@@ -6789,10 +6791,10 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>417.819930308278</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>357.1274984979811</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>234.1241141445332</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>300.2831496757665</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>557.4621512791394</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>836.805091346977</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N34" t="n">
-        <v>1113.04608710776</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O34" t="n">
-        <v>1368.802215879041</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P34" t="n">
-        <v>1581.729743385192</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>1210.091109858832</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>1039.052445966845</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>850.6627251852102</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1827.815439560371</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1529.58061935049</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>291.2614968504365</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>3005.489809301069</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2729.431455556545</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2434.91953177679</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>2133.36950398458</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>100.2728717798493</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>300.2831496757665</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>557.4621512791396</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>836.805091346977</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>1113.046087107759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>1368.802215879041</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1581.729743385193</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q37" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>1400.589220329742</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>1210.091109858832</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>850.6627251852103</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1642.069506034397</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.834685824516</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1053.334238328372</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>745.6913947321048</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>423.7376375492709</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>105.5155633244624</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>105.5155633244624</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3034.383511434015</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2905.82359028062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2761.35593936018</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2514.189811350886</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2238.131457606362</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>1943.619533826607</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1642.069506034397</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1974.833293963354</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>417.819930308278</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>357.1274984979811</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>234.1241141445332</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>100.2728717798493</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>300.2831496757665</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>557.4621512791394</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>836.805091346977</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>1113.04608710776</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>1368.802215879041</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1581.729743385192</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q40" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>1400.589220329742</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>1210.091109858832</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>1039.052445966845</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>850.6627251852102</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.977498561194</v>
+        <v>1581.208058106525</v>
       </c>
       <c r="C41" t="n">
-        <v>1571.742678351313</v>
+        <v>1262.991672026792</v>
       </c>
       <c r="D41" t="n">
-        <v>1281.242230855169</v>
+        <v>1069.882500317581</v>
       </c>
       <c r="E41" t="n">
-        <v>973.5993872589014</v>
+        <v>742.2580908514619</v>
       </c>
       <c r="F41" t="n">
-        <v>651.6456300760675</v>
+        <v>400.322767798776</v>
       </c>
       <c r="G41" t="n">
-        <v>333.423555851259</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>104.281186704938</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>205.5345239934193</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>564.5168800208811</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1057.83717173941</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1603.83807178399</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2131.649355421453</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2571.688956313781</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2919.876448445303</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2972.664680457798</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2844.104759304403</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2683.29271102619</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2436.126583016897</v>
+        <v>2838.808691326631</v>
       </c>
       <c r="W41" t="n">
-        <v>2436.126583016897</v>
+        <v>2542.768771712255</v>
       </c>
       <c r="X41" t="n">
-        <v>2175.531562985402</v>
+        <v>2228.275282062648</v>
       </c>
       <c r="Y41" t="n">
-        <v>2175.531562985402</v>
+        <v>1906.743688400585</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>860.2507342246222</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>709.5965037847144</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>579.5075364061947</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>443.0610455170824</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>318.6292394002142</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>198.5694214720787</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>110.2720050726796</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>60.88475108459117</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L42" t="n">
-        <v>173.5290139156081</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M42" t="n">
-        <v>801.3006635422893</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N42" t="n">
-        <v>1457.078634752848</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1973.598917343829</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2379.220286060227</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
-        <v>2379.220286060227</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>2355.303242958291</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2220.37256585816</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2043.388754057069</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>1833.325610735711</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>1610.785609106778</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>1380.668363240065</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1191.361285590076</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1012.047068665584</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>491.8499903355756</v>
+        <v>205.5206864041834</v>
       </c>
       <c r="C43" t="n">
-        <v>416.5855536887532</v>
+        <v>110.2746838875089</v>
       </c>
       <c r="D43" t="n">
-        <v>355.8931218784567</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>295.2749910248475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>232.8897375250088</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>159.5763649116427</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>99.03849516032496</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>124.162370216727</v>
+        <v>105.8128141272094</v>
       </c>
       <c r="K43" t="n">
-        <v>299.0487730562421</v>
+        <v>261.1152842576826</v>
       </c>
       <c r="L43" t="n">
-        <v>556.2277746596151</v>
+        <v>498.7103531520137</v>
       </c>
       <c r="M43" t="n">
-        <v>835.5707147274525</v>
+        <v>758.4693605108091</v>
       </c>
       <c r="N43" t="n">
-        <v>1111.811710488235</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O43" t="n">
-        <v>1367.567839259516</v>
+        <v>1251.298619624789</v>
       </c>
       <c r="P43" t="n">
-        <v>1580.495366765668</v>
+        <v>1444.642214421899</v>
       </c>
       <c r="Q43" t="n">
-        <v>1676.968924865292</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="R43" t="n">
-        <v>1648.008616785057</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="S43" t="n">
-        <v>1540.133214254795</v>
+        <v>1393.674871412367</v>
       </c>
       <c r="T43" t="n">
-        <v>1399.354843710218</v>
+        <v>1232.914934997938</v>
       </c>
       <c r="U43" t="n">
-        <v>1208.856733239307</v>
+        <v>1022.435258657175</v>
       </c>
       <c r="V43" t="n">
-        <v>1037.81806934732</v>
+        <v>831.4150288953352</v>
       </c>
       <c r="W43" t="n">
-        <v>849.4283485656855</v>
+        <v>623.0437422438492</v>
       </c>
       <c r="X43" t="n">
-        <v>710.2887076358569</v>
+        <v>463.9225354441687</v>
       </c>
       <c r="Y43" t="n">
-        <v>582.1173277396886</v>
+        <v>315.7695896781483</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1242.084906248448</v>
+        <v>1400.41444395846</v>
       </c>
       <c r="C44" t="n">
-        <v>848.9094047513789</v>
+        <v>1082.198057878727</v>
       </c>
       <c r="D44" t="n">
-        <v>463.4682759680467</v>
+        <v>977.0711122810682</v>
       </c>
       <c r="E44" t="n">
-        <v>60.88475108459117</v>
+        <v>649.446702814949</v>
       </c>
       <c r="F44" t="n">
-        <v>60.88475108459117</v>
+        <v>649.446702814949</v>
       </c>
       <c r="G44" t="n">
-        <v>60.88475108459117</v>
+        <v>311.2430627202885</v>
       </c>
       <c r="H44" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>145.0500696367259</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>504.0324256641878</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>997.3527173827166</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1543.353617427297</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2071.164901064759</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2511.204501957088</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2859.39199408861</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>3044.237554229559</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3044.237554229559</v>
+        <v>2925.162771057711</v>
       </c>
       <c r="V44" t="n">
-        <v>2799.5220011379</v>
+        <v>2658.015077178566</v>
       </c>
       <c r="W44" t="n">
-        <v>2428.522966106187</v>
+        <v>2361.97515756419</v>
       </c>
       <c r="X44" t="n">
-        <v>2039.070361039244</v>
+        <v>2047.481667914583</v>
       </c>
       <c r="Y44" t="n">
-        <v>1642.579651959845</v>
+        <v>1725.950074252521</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>860.2507342246222</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>709.5965037847144</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>579.5075364061947</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>443.0610455170824</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>318.6292394002142</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>198.5694214720787</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>110.2720050726796</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>173.9997333043186</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>493.738879366545</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>977.3049652648583</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1605.07661489154</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1739.233825788939</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1739.233825788939</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2144.855194505336</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2379.220286060227</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2355.303242958291</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2220.37256585816</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2043.388754057069</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1833.325610735711</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1610.785609106778</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1380.668363240065</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1191.361285590076</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.047068665584</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>218.2106858716182</v>
+        <v>632.9553280440645</v>
       </c>
       <c r="C46" t="n">
-        <v>218.2106858716182</v>
+        <v>537.70932552739</v>
       </c>
       <c r="D46" t="n">
-        <v>218.2106858716182</v>
+        <v>457.0353278472411</v>
       </c>
       <c r="E46" t="n">
-        <v>218.2106858716182</v>
+        <v>376.4356311237799</v>
       </c>
       <c r="F46" t="n">
-        <v>60.88475108459117</v>
+        <v>294.0688117540892</v>
       </c>
       <c r="G46" t="n">
-        <v>60.88475108459117</v>
+        <v>200.773873270871</v>
       </c>
       <c r="H46" t="n">
-        <v>60.88475108459117</v>
+        <v>120.2544376497013</v>
       </c>
       <c r="I46" t="n">
-        <v>60.88475108459117</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>60.88475108459117</v>
+        <v>105.8128141272094</v>
       </c>
       <c r="K46" t="n">
-        <v>142.7197921945331</v>
+        <v>261.1152842576826</v>
       </c>
       <c r="L46" t="n">
-        <v>306.8474320683329</v>
+        <v>498.7103531520137</v>
       </c>
       <c r="M46" t="n">
-        <v>493.1390104065969</v>
+        <v>758.4693605108091</v>
       </c>
       <c r="N46" t="n">
-        <v>676.3286444378061</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O46" t="n">
-        <v>839.0334114795141</v>
+        <v>1251.298619624789</v>
       </c>
       <c r="P46" t="n">
-        <v>958.9095772560927</v>
+        <v>1444.642214421899</v>
       </c>
       <c r="Q46" t="n">
-        <v>962.3317736261437</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="R46" t="n">
-        <v>962.3317736261437</v>
+        <v>1472.589965862395</v>
       </c>
       <c r="S46" t="n">
-        <v>759.515689808693</v>
+        <v>1472.589965862395</v>
       </c>
       <c r="T46" t="n">
-        <v>759.515689808693</v>
+        <v>1311.830029447965</v>
       </c>
       <c r="U46" t="n">
-        <v>759.515689808693</v>
+        <v>1101.350353107202</v>
       </c>
       <c r="V46" t="n">
-        <v>759.515689808693</v>
+        <v>910.3301233453627</v>
       </c>
       <c r="W46" t="n">
-        <v>675.4030692719919</v>
+        <v>701.9588366938767</v>
       </c>
       <c r="X46" t="n">
-        <v>441.3227470549749</v>
+        <v>701.9588366938767</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.2106858716182</v>
+        <v>701.9588366938767</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M2" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -8058,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>202.8119771871982</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8225,10 +8227,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8292,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>507.3325231325139</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8455,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>363.4321479293332</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,13 +8534,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>509.5709760063957</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>270.1159769883471</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M12" t="n">
-        <v>663.2434089132774</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>202.6953112273307</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -9003,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>117.4945034435368</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9021,7 +9023,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,10 +9485,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,7 +9719,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9954,10 +9956,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>236.6660863673584</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9966,7 +9968,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,16 +10190,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,10 +10208,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10437,13 +10439,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10668,7 +10670,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,7 +10904,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,13 +10913,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>457.616862805975</v>
+        <v>668.5665922884425</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>270.1159769883471</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11139,10 +11141,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L42" t="n">
-        <v>203.842430524612</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11154,7 +11156,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>202.6953112273307</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,16 +11387,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>343.9737329181656</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>360.9447050572876</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>43.30803106122698</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>347.9450944389404</v>
+        <v>145.2325565835401</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.9128174112716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.742953927055</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>130.8900821773374</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>116.4637973891771</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>116.3902394420562</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.1396908618235</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.57200718768127</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3107809507877</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>94.1504965319596</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>85.04899489641552</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>194.1265344175134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.2679559941898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>73.99267181698245</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>158.413036113753</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>70.77488306034451</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>77.58553892411356</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>246.99589510473</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24446,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>325.2084275985158</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>342.1793997376377</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>80.57545584147665</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>25.61439600976631</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>145.2325565835404</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>336.1475120916217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.9776486074051</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>112.1247768576875</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>97.69849206952723</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>97.62493412240634</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>58.58078395950821</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>97.54547563113779</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.38519121230972</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.28368957676564</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.5026506745399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25445,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>16.18095338419482</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>116.1991132402177</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>246.6326956660113</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529685</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.63889524519698</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.0560721530145</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>178.9856780065844</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>33.57773471077758</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>32.19325708178797</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.79369975622654</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.54315117599381</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838595</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495799</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684612992</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.45245521058584</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>203.3015170906537</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>338.515969822159</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>62.74422147529685</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>90.63889524519698</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>147.0560721530145</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>96.41734364277451</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>40.83294067791117</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>197.2256037168</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457294.7440336189</v>
+        <v>538280.2733101952</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534464.7203180257</v>
+        <v>538280.2733101952</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>538280.2733101953</v>
+        <v>571934.0450815626</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>538280.2733101952</v>
+        <v>571934.0450815626</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>538280.2733101953</v>
+        <v>571934.0450815626</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>486796.0382771299</v>
+        <v>538280.2733101952</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>538280.2733101952</v>
+        <v>571934.0450815626</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>538280.2733101952</v>
+        <v>571934.0450815626</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>538280.2733101953</v>
+        <v>571934.0450815626</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534464.7203180257</v>
+        <v>511203.2335942306</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403479.032211185</v>
+        <v>511203.2335942307</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>703295.4945640911</v>
       </c>
       <c r="C2" t="n">
-        <v>703295.4945640913</v>
+        <v>703295.4945640912</v>
       </c>
       <c r="D2" t="n">
         <v>703295.4945640913</v>
       </c>
       <c r="E2" t="n">
-        <v>559224.8130731008</v>
+        <v>660956.8784646296</v>
       </c>
       <c r="F2" t="n">
-        <v>656309.6219470317</v>
+        <v>660956.8784646295</v>
       </c>
       <c r="G2" t="n">
-        <v>660956.8784646284</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="H2" t="n">
-        <v>660956.8784646298</v>
+        <v>703295.4945640918</v>
       </c>
       <c r="I2" t="n">
-        <v>660956.8784646286</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="J2" t="n">
-        <v>596186.3892294831</v>
+        <v>660956.8784646296</v>
       </c>
       <c r="K2" t="n">
-        <v>660956.8784646296</v>
+        <v>660956.8784646295</v>
       </c>
       <c r="L2" t="n">
-        <v>660956.8784646296</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="M2" t="n">
-        <v>660956.8784646295</v>
+        <v>703295.4945640917</v>
       </c>
       <c r="N2" t="n">
-        <v>660956.8784646295</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="O2" t="n">
-        <v>656309.6219470318</v>
+        <v>626892.2155961579</v>
       </c>
       <c r="P2" t="n">
-        <v>491521.1756190717</v>
+        <v>626892.2155961578</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80743.32794132133</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>45102.63191758654</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4229.051447029144</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>75193.01957945315</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>58189.9117460287</v>
       </c>
       <c r="M3" t="n">
-        <v>42276.77635124233</v>
+        <v>46121.92123989164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1177.707664501689</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165792.0503172815</v>
+        <v>165792.0503172816</v>
       </c>
       <c r="C4" t="n">
         <v>165792.0503172815</v>
@@ -26424,40 +26426,40 @@
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>53041.6699413743</v>
+        <v>110143.3843639945</v>
       </c>
       <c r="F4" t="n">
-        <v>110014.5097094288</v>
+        <v>110143.3843639945</v>
       </c>
       <c r="G4" t="n">
+        <v>134747.7050074764</v>
+      </c>
+      <c r="H4" t="n">
+        <v>134747.7050074764</v>
+      </c>
+      <c r="I4" t="n">
+        <v>134747.7050074764</v>
+      </c>
+      <c r="J4" t="n">
         <v>110143.3843639945</v>
-      </c>
-      <c r="H4" t="n">
-        <v>110143.3843639945</v>
-      </c>
-      <c r="I4" t="n">
-        <v>110143.3843639945</v>
-      </c>
-      <c r="J4" t="n">
-        <v>72133.7436416819</v>
       </c>
       <c r="K4" t="n">
         <v>110143.3843639945</v>
       </c>
       <c r="L4" t="n">
-        <v>110143.3843639945</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="M4" t="n">
-        <v>110143.3843639945</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>110143.3843639945</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>110014.5097094288</v>
+        <v>90153.02127971027</v>
       </c>
       <c r="P4" t="n">
-        <v>13324.23894504732</v>
+        <v>90153.02127971027</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>49434.49682472112</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>54174.1632780706</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="I5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="J5" t="n">
         <v>55112.2895089091</v>
-      </c>
-      <c r="H5" t="n">
-        <v>55112.2895089091</v>
-      </c>
-      <c r="I5" t="n">
-        <v>55112.2895089091</v>
-      </c>
-      <c r="J5" t="n">
-        <v>51950.20350847727</v>
       </c>
       <c r="K5" t="n">
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>54174.1632780706</v>
+        <v>53449.25755040764</v>
       </c>
       <c r="P5" t="n">
-        <v>46272.41082428929</v>
+        <v>53449.25755040764</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>269722.1809778914</v>
       </c>
       <c r="C6" t="n">
-        <v>467917.9869696366</v>
+        <v>467917.9869696365</v>
       </c>
       <c r="D6" t="n">
         <v>467917.9869696366</v>
       </c>
       <c r="E6" t="n">
-        <v>376005.318365684</v>
+        <v>365248.2734540139</v>
       </c>
       <c r="F6" t="n">
-        <v>447018.3170419458</v>
+        <v>495701.204591726</v>
       </c>
       <c r="G6" t="n">
-        <v>491472.1531446957</v>
+        <v>481283.0643680805</v>
       </c>
       <c r="H6" t="n">
-        <v>495701.2045917262</v>
+        <v>510378.0202410957</v>
       </c>
       <c r="I6" t="n">
-        <v>495701.204591725</v>
+        <v>510378.0202410948</v>
       </c>
       <c r="J6" t="n">
-        <v>317363.0077137205</v>
+        <v>294863.7065196838</v>
       </c>
       <c r="K6" t="n">
-        <v>420508.1850122729</v>
+        <v>495701.204591726</v>
       </c>
       <c r="L6" t="n">
-        <v>495701.2045917261</v>
+        <v>452188.1084950661</v>
       </c>
       <c r="M6" t="n">
-        <v>453424.4282404836</v>
+        <v>464256.099001204</v>
       </c>
       <c r="N6" t="n">
-        <v>495701.204591726</v>
+        <v>510378.0202410948</v>
       </c>
       <c r="O6" t="n">
-        <v>492120.9489595324</v>
+        <v>482112.2291015383</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.5258497351</v>
+        <v>483289.9367660399</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="H2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="I2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="J2" t="n">
         <v>93.99127447431644</v>
-      </c>
-      <c r="H2" t="n">
-        <v>93.99127447431644</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93.99127447431644</v>
-      </c>
-      <c r="J2" t="n">
-        <v>56.37828989698316</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26798,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>761.0593885573896</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>761.0593885573896</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26828,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>761.0593885573896</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>761.0593885573896</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>72.73738968253588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.472134580627111</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>169.6472622880946</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.42970774405442</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>169.6472622880946</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>169.6472622880946</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15.42970774405442</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>205.1743401347732</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>137.9047327956985</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>76.13417240419864</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>228.7538422918833</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27619,10 +27621,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>221.7190298498175</v>
       </c>
       <c r="E5" t="n">
-        <v>59.88030049019176</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27777,22 +27779,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>1.407991256076031</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.09812060331117</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>225.0611505551386</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>332.2347378559199</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>113.5298838162464</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P19" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634528936</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N34" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>93.99127447431658</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634529405</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R37" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634529405</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="K43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="L43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="M43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="N43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="O43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="P43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="R43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="S43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.99127447431644</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
   </sheetData>
@@ -34696,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M2" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34778,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>113.2150418538649</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>414.9454010832019</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>220.3737447500958</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>417.1838539570837</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.617278569955</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M12" t="n">
-        <v>570.8562868639656</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.538497105174208</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
-        <v>120.2746422641433</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>203.3984793993533</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
-        <v>225.7862960301252</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>222.6530189522921</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
-        <v>201.9612341144122</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>158.7000207152914</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.06974858748576</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.01547328498461</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>35.05004611020347</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35741,7 +35743,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446907</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>258.3395240113953</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>215.0783106122746</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.44803848446892</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>215.0783106122746</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.44803848446892</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,13 +36448,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>259.7767692963364</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M25" t="n">
-        <v>282.1645859271084</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>215.0783106122746</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.44803848446892</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36686,7 +36688,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.30380242482409</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
-        <v>139.0399475837932</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>222.1637847190032</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
-        <v>244.5516013497751</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>241.418324271942</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>220.726539434062</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>177.4653260349413</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.83505390713565</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,10 +36928,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>282.1645859271084</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N34" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>215.0783106122746</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.44803848446892</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>258.3395240113954</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>215.0783106122746</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.44803848446892</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,13 +37633,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>372.2447499518083</v>
+        <v>583.1944794342759</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>215.0783106122746</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.44803848446892</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.617278569955</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L42" t="n">
-        <v>113.7820836676938</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37874,7 +37876,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.91678700215737</v>
+        <v>44.13503679100389</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6529321611264</v>
+        <v>156.8711819499729</v>
       </c>
       <c r="L43" t="n">
-        <v>259.7767692963364</v>
+        <v>239.9950190851829</v>
       </c>
       <c r="M43" t="n">
-        <v>282.1645859271084</v>
+        <v>262.3828357159549</v>
       </c>
       <c r="N43" t="n">
-        <v>279.0313088492752</v>
+        <v>259.2495586381218</v>
       </c>
       <c r="O43" t="n">
-        <v>258.3395240113953</v>
+        <v>238.5577738002418</v>
       </c>
       <c r="P43" t="n">
-        <v>215.0783106122746</v>
+        <v>195.2965604011211</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.44803848446892</v>
+        <v>77.66628827331544</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.01547328498461</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,16 +38107,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.13503679100389</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>156.8711819499729</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>239.9950190851829</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>262.3828357159549</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>259.2495586381218</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>238.5577738002418</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>195.2965604011211</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>77.66628827331544</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3667602.730163674</v>
+        <v>3667087.100549316</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197835</v>
+        <v>826053.9034197842</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>320.7352636372015</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>26.94368671266144</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>157.2276889092496</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.33408000703054</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>159.8676876456814</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>267.9790058086179</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>152.5952327633135</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>3.777855937592519</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>322.5589143917752</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>113.6245906483782</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>98.41185199334704</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1305,7 +1305,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1390,7 +1390,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>146.3342479584171</v>
+        <v>103.3717766942737</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142885</v>
@@ -1618,7 +1618,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>258.9922019612343</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>133.1537684282043</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142885</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059311</v>
@@ -2134,7 +2134,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2563,19 +2563,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384654</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>99.46191014565997</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
         <v>37.77220663497643</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943231</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2772,13 +2772,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2800,7 +2800,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2809,7 +2809,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>10.76124383727423</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>99.46191014565997</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
         <v>37.77220663497643</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3085,7 +3085,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541621</v>
       </c>
       <c r="V32" t="n">
         <v>208.3257718879324</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799133</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3280,13 +3280,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3328,10 +3328,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3517,13 +3517,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3565,10 +3565,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911199</v>
+        <v>322.28027399112</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0342222189357</v>
+        <v>315.0342222189358</v>
       </c>
       <c r="D41" t="n">
-        <v>191.1780799921183</v>
+        <v>307.377193232336</v>
       </c>
       <c r="E41" t="n">
-        <v>324.3481653714579</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F41" t="n">
-        <v>338.515969822159</v>
+        <v>338.5159698221591</v>
       </c>
       <c r="G41" t="n">
-        <v>334.8216036937139</v>
+        <v>218.6224904534953</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>264.4762169403538</v>
+        <v>264.4762169403539</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182324</v>
+        <v>293.0795204182325</v>
       </c>
       <c r="X41" t="n">
-        <v>311.3485547531108</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.3162777254419</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412253</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150771</v>
+        <v>94.29354249150779</v>
       </c>
       <c r="D43" t="n">
-        <v>47.67400062155946</v>
+        <v>79.86725770334752</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.5431511759939</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838603</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495808</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>126.5783987161132</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502852</v>
+        <v>109.0645113864965</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773551</v>
+        <v>208.3748795773552</v>
       </c>
       <c r="V43" t="n">
-        <v>189.110027464221</v>
+        <v>189.1100274642211</v>
       </c>
       <c r="W43" t="n">
-        <v>206.2875737849712</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X43" t="n">
         <v>157.5299947316838</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083601</v>
+        <v>146.6714163083602</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911199</v>
+        <v>322.28027399112</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0342222189357</v>
+        <v>315.0342222189358</v>
       </c>
       <c r="D44" t="n">
-        <v>104.0756761416823</v>
+        <v>307.377193232336</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3481653714579</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>338.5159698221591</v>
       </c>
       <c r="G44" t="n">
-        <v>334.8216036937139</v>
+        <v>334.821603693714</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660113</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065844</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>264.4762169403538</v>
+        <v>148.2771037001351</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182324</v>
+        <v>293.0795204182325</v>
       </c>
       <c r="X44" t="n">
-        <v>311.3485547531108</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.3162777254419</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.31347356331413</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150771</v>
+        <v>77.20881707991111</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334743</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622654</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599381</v>
+        <v>81.5431511759939</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838595</v>
+        <v>92.36198909838603</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495799</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684612992</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058584</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502852</v>
+        <v>159.1523370502853</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773551</v>
+        <v>208.3748795773552</v>
       </c>
       <c r="V46" t="n">
-        <v>189.110027464221</v>
+        <v>189.1100274642211</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2875737849712</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>146.6714163083602</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1279.953688967018</v>
+        <v>786.439871274775</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.953688967018</v>
+        <v>393.2643697777056</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.953688967018</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3701640835627</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G2" t="n">
         <v>47.31297010154361</v>
@@ -4330,52 +4330,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415868</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2300.439746198398</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2076.939143757814</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U2" t="n">
-        <v>2076.939143757814</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V2" t="n">
-        <v>2076.939143757814</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W2" t="n">
-        <v>2076.939143757814</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="X2" t="n">
-        <v>2076.939143757814</v>
+        <v>1182.930580354174</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.448434678415</v>
+        <v>786.439871274775</v>
       </c>
     </row>
     <row r="3">
@@ -4418,13 +4418,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.201482535628</v>
+        <v>380.9907835723745</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>2206.8326576941</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>1921.393865936001</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V4" t="n">
-        <v>1921.393865936001</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W4" t="n">
-        <v>1921.393865936001</v>
+        <v>800.2791244806928</v>
       </c>
       <c r="X4" t="n">
-        <v>1687.313543718984</v>
+        <v>566.1988022636758</v>
       </c>
       <c r="Y4" t="n">
-        <v>1464.201482535628</v>
+        <v>566.1988022636758</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1177.189793764514</v>
+        <v>1244.074933214223</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.189793764514</v>
+        <v>850.8994317171532</v>
       </c>
       <c r="D5" t="n">
-        <v>1015.707280991098</v>
+        <v>465.458302933821</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.707280991098</v>
+        <v>465.458302933821</v>
       </c>
       <c r="F5" t="n">
-        <v>598.8128425210757</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G5" t="n">
         <v>185.6500870090788</v>
@@ -4567,22 +4567,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>1937.641433863169</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W5" t="n">
-        <v>1566.642398831457</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="X5" t="n">
-        <v>1177.189793764514</v>
+        <v>1244.074933214223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1177.189793764514</v>
+        <v>1244.074933214223</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.14176221491</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.0409408113302</v>
+        <v>536.6238966698598</v>
       </c>
       <c r="C7" t="n">
-        <v>713.0409408113302</v>
+        <v>366.4187787358491</v>
       </c>
       <c r="D7" t="n">
-        <v>557.4078277138449</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E7" t="n">
-        <v>403.2712289630232</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F7" t="n">
-        <v>245.9452941759961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
         <v>77.69124027544166</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>713.0409408113302</v>
+        <v>944.9439765445178</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.0409408113302</v>
+        <v>721.8319153611611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1594.628716014141</v>
+        <v>533.4435581545072</v>
       </c>
       <c r="C8" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4807,16 +4807,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4831,25 +4831,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.123461725538</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.123461725538</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.123461725538</v>
+        <v>1330.429012945303</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.123461725538</v>
+        <v>933.9383038659041</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479596</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486198</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>849.3540815387051</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>679.1489636046944</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>679.1489636046944</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G10" t="n">
         <v>366.2642166768698</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.815439560371</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.58061935049</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854346</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5083,10 +5083,10 @@
         <v>2582.731903451959</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.91953177679</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.36950398458</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1767.469967186865</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1469.235146976984</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>1178.73469948084</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>871.0918558845726</v>
       </c>
       <c r="F14" t="n">
         <v>609.483571075245</v>
@@ -5308,22 +5308,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774169</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V14" t="n">
-        <v>2569.418287764875</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="W14" t="n">
-        <v>2569.418287764875</v>
+        <v>2669.085983183039</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>2374.574059403284</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>2073.024031611073</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5442,19 +5442,19 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791398</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5500,13 +5500,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5542,7 +5542,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5551,16 +5551,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5676,19 +5676,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5831,19 +5831,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5922,13 +5922,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5974,10 +5974,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G23" t="n">
         <v>261.1858216803432</v>
@@ -6031,7 +6031,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443166</v>
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6153,22 +6153,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C26" t="n">
-        <v>1529.58061935049</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D26" t="n">
-        <v>1239.080171854346</v>
+        <v>731.4357765463916</v>
       </c>
       <c r="E26" t="n">
-        <v>931.4373282580789</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F26" t="n">
-        <v>609.483571075245</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G26" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V26" t="n">
-        <v>3005.489809301069</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W26" t="n">
-        <v>2729.431455556545</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X26" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y26" t="n">
-        <v>2133.36950398458</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C28" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G28" t="n">
         <v>160.810741531167</v>
@@ -6390,13 +6390,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
         <v>1368.802215879041</v>
@@ -6417,19 +6417,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1827.815439560371</v>
+        <v>1609.543013684024</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.58061935049</v>
+        <v>1311.308193474143</v>
       </c>
       <c r="D29" t="n">
-        <v>1239.080171854346</v>
+        <v>1020.807745977999</v>
       </c>
       <c r="E29" t="n">
-        <v>931.4373282580789</v>
+        <v>713.1649023817318</v>
       </c>
       <c r="F29" t="n">
-        <v>609.483571075245</v>
+        <v>391.211145198898</v>
       </c>
       <c r="G29" t="n">
-        <v>291.2614968504365</v>
+        <v>72.98907097408949</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
         <v>1059.071548358934</v>
@@ -6481,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V29" t="n">
-        <v>3005.489809301069</v>
+        <v>2787.217383424722</v>
       </c>
       <c r="W29" t="n">
-        <v>2729.431455556545</v>
+        <v>2511.159029680198</v>
       </c>
       <c r="X29" t="n">
-        <v>2434.91953177679</v>
+        <v>2216.647105900443</v>
       </c>
       <c r="Y29" t="n">
-        <v>2133.36950398458</v>
+        <v>1915.097078108232</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L30" t="n">
         <v>545.6852136024288</v>
@@ -6554,13 +6554,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
         <v>160.810741531167</v>
@@ -6618,7 +6618,7 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J31" t="n">
         <v>125.3967468362513</v>
@@ -6627,28 +6627,28 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R31" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T31" t="n">
         <v>1400.589220329742</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6730,13 +6730,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U32" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
         <v>2405.467337224691</v>
@@ -6745,7 +6745,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6849,34 +6849,34 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>499.953029634305</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>683.1426636655142</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O34" t="n">
-        <v>845.8474307072222</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q34" t="n">
         <v>1098.20216247628</v>
@@ -6903,7 +6903,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6982,7 +6982,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838011</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7204,19 +7204,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7250,28 +7250,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.571845448837</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838011</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1581.208058106525</v>
+        <v>1581.208058106524</v>
       </c>
       <c r="C41" t="n">
-        <v>1262.991672026792</v>
+        <v>1262.991672026791</v>
       </c>
       <c r="D41" t="n">
-        <v>1069.882500317581</v>
+        <v>952.5096586607949</v>
       </c>
       <c r="E41" t="n">
-        <v>742.2580908514619</v>
+        <v>624.8852491946757</v>
       </c>
       <c r="F41" t="n">
-        <v>400.322767798776</v>
+        <v>282.9499261419896</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7429,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7450,10 +7450,10 @@
         <v>2838.808691326631</v>
       </c>
       <c r="W41" t="n">
-        <v>2542.768771712255</v>
+        <v>2542.768771712254</v>
       </c>
       <c r="X41" t="n">
-        <v>2228.275282062648</v>
+        <v>2228.275282062647</v>
       </c>
       <c r="Y41" t="n">
         <v>1906.743688400585</v>
@@ -7487,25 +7487,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>96.81867335321709</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>205.5206864041834</v>
+        <v>494.2203213750179</v>
       </c>
       <c r="C43" t="n">
-        <v>110.2746838875089</v>
+        <v>398.9743188583433</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>318.3003211781943</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>318.3003211781943</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>235.9335018085035</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>142.6385633252853</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8128141272094</v>
+        <v>105.8128141272093</v>
       </c>
       <c r="K43" t="n">
-        <v>261.1152842576826</v>
+        <v>261.1152842576824</v>
       </c>
       <c r="L43" t="n">
-        <v>498.7103531520137</v>
+        <v>498.7103531520135</v>
       </c>
       <c r="M43" t="n">
-        <v>758.4693605108091</v>
+        <v>758.4693605108087</v>
       </c>
       <c r="N43" t="n">
-        <v>1015.12642356255</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O43" t="n">
-        <v>1251.298619624789</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P43" t="n">
-        <v>1444.642214421899</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q43" t="n">
-        <v>1521.531839812481</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R43" t="n">
-        <v>1521.531839812481</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="S43" t="n">
-        <v>1393.674871412367</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="T43" t="n">
-        <v>1232.914934997938</v>
+        <v>1411.365666694807</v>
       </c>
       <c r="U43" t="n">
-        <v>1022.435258657175</v>
+        <v>1200.885990354044</v>
       </c>
       <c r="V43" t="n">
-        <v>831.4150288953352</v>
+        <v>1009.865760592205</v>
       </c>
       <c r="W43" t="n">
-        <v>623.0437422438492</v>
+        <v>801.4944739407189</v>
       </c>
       <c r="X43" t="n">
-        <v>463.9225354441687</v>
+        <v>642.3732671410382</v>
       </c>
       <c r="Y43" t="n">
-        <v>315.7695896781483</v>
+        <v>494.2203213750179</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1400.41444395846</v>
+        <v>1698.580899763311</v>
       </c>
       <c r="C44" t="n">
-        <v>1082.198057878727</v>
+        <v>1380.364513683577</v>
       </c>
       <c r="D44" t="n">
-        <v>977.0711122810682</v>
+        <v>1069.882500317581</v>
       </c>
       <c r="E44" t="n">
-        <v>649.446702814949</v>
+        <v>742.2580908514622</v>
       </c>
       <c r="F44" t="n">
-        <v>649.446702814949</v>
+        <v>400.3227677987761</v>
       </c>
       <c r="G44" t="n">
-        <v>311.2430627202885</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7681,19 +7681,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2925.162771057711</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2658.015077178566</v>
+        <v>2956.181532983417</v>
       </c>
       <c r="W44" t="n">
-        <v>2361.97515756419</v>
+        <v>2660.141613369041</v>
       </c>
       <c r="X44" t="n">
-        <v>2047.481667914583</v>
+        <v>2345.648123719434</v>
       </c>
       <c r="Y44" t="n">
-        <v>1725.950074252521</v>
+        <v>2024.116530057371</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>632.9553280440645</v>
+        <v>315.7695896781469</v>
       </c>
       <c r="C46" t="n">
-        <v>537.70932552739</v>
+        <v>237.7808855570245</v>
       </c>
       <c r="D46" t="n">
-        <v>457.0353278472411</v>
+        <v>237.7808855570245</v>
       </c>
       <c r="E46" t="n">
-        <v>376.4356311237799</v>
+        <v>237.7808855570245</v>
       </c>
       <c r="F46" t="n">
-        <v>294.0688117540892</v>
+        <v>155.4140661873337</v>
       </c>
       <c r="G46" t="n">
-        <v>200.773873270871</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>120.2544376497013</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8128141272094</v>
+        <v>105.8128141272093</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576826</v>
+        <v>261.1152842576824</v>
       </c>
       <c r="L46" t="n">
-        <v>498.7103531520137</v>
+        <v>498.7103531520135</v>
       </c>
       <c r="M46" t="n">
-        <v>758.4693605108091</v>
+        <v>758.4693605108087</v>
       </c>
       <c r="N46" t="n">
-        <v>1015.12642356255</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O46" t="n">
-        <v>1251.298619624789</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P46" t="n">
-        <v>1444.642214421899</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q46" t="n">
-        <v>1521.531839812481</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R46" t="n">
-        <v>1472.589965862395</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="S46" t="n">
-        <v>1472.589965862395</v>
+        <v>1393.674871412366</v>
       </c>
       <c r="T46" t="n">
-        <v>1311.830029447965</v>
+        <v>1232.914934997936</v>
       </c>
       <c r="U46" t="n">
-        <v>1101.350353107202</v>
+        <v>1022.435258657174</v>
       </c>
       <c r="V46" t="n">
-        <v>910.3301233453627</v>
+        <v>831.415028895334</v>
       </c>
       <c r="W46" t="n">
-        <v>701.9588366938767</v>
+        <v>623.0437422438479</v>
       </c>
       <c r="X46" t="n">
-        <v>701.9588366938767</v>
+        <v>463.9225354441672</v>
       </c>
       <c r="Y46" t="n">
-        <v>701.9588366938767</v>
+        <v>315.7695896781469</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8066,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>468.0425993879824</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>290.0251085634814</v>
       </c>
       <c r="M6" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,7 +8455,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8467,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>509.5709760063957</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8771,10 +8771,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8786,7 +8786,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>522.8795138138872</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,22 +9479,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056833</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10202,16 +10202,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>658.1108392979579</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10442,10 +10442,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,25 +10904,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>668.5665922884425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11141,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11378,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11387,13 +11387,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>145.2325565835401</v>
+        <v>188.1950278476835</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>59.74201764977119</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>158.413036113753</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>230.4905691364579</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0897016175835</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -24739,7 +24739,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>116.1991132402177</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>116.1991132402187</v>
       </c>
       <c r="H41" t="n">
-        <v>246.6326956660113</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529685</v>
+        <v>62.74422147529694</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519698</v>
+        <v>90.63889524519706</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530145</v>
+        <v>147.0560721530146</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065844</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>32.19325708178797</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>79.79369975622654</v>
+        <v>79.79369975622663</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599381</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>92.36198909838595</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495799</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684612992</v>
+        <v>57.55395684613001</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058584</v>
+        <v>48.45245521058592</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>50.08782566378883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>203.3015170906537</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>338.515969822159</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529685</v>
+        <v>62.74422147529694</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519698</v>
+        <v>90.63889524519706</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530145</v>
+        <v>147.0560721530146</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>116.1991132402187</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.83294067791117</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>17.08472541159668</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334752</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622663</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495808</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.55395684613001</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.45245521058592</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161132</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5299947316838</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6714163083601</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>538280.2733101952</v>
+        <v>538280.2733101953</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>538280.2733101952</v>
+        <v>538280.2733101953</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>538280.2733101952</v>
+        <v>538280.2733101953</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511203.2335942307</v>
+        <v>511203.2335942306</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>703295.4945640911</v>
       </c>
       <c r="C2" t="n">
-        <v>703295.4945640912</v>
+        <v>703295.494564091</v>
       </c>
       <c r="D2" t="n">
-        <v>703295.4945640913</v>
+        <v>703295.4945640911</v>
       </c>
       <c r="E2" t="n">
         <v>660956.8784646296</v>
       </c>
       <c r="F2" t="n">
-        <v>660956.8784646295</v>
+        <v>660956.8784646296</v>
       </c>
       <c r="G2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640918</v>
       </c>
       <c r="H2" t="n">
-        <v>703295.4945640918</v>
+        <v>703295.4945640917</v>
       </c>
       <c r="I2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640914</v>
       </c>
       <c r="J2" t="n">
-        <v>660956.8784646296</v>
+        <v>660956.8784646286</v>
       </c>
       <c r="K2" t="n">
-        <v>660956.8784646295</v>
+        <v>660956.8784646294</v>
       </c>
       <c r="L2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640912</v>
       </c>
       <c r="M2" t="n">
         <v>703295.4945640917</v>
       </c>
       <c r="N2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640916</v>
       </c>
       <c r="O2" t="n">
-        <v>626892.2155961579</v>
+        <v>626892.2155961576</v>
       </c>
       <c r="P2" t="n">
-        <v>626892.2155961578</v>
+        <v>626892.2155961574</v>
       </c>
     </row>
     <row r="3">
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.9117460287</v>
+        <v>58189.91174602869</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989164</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501689</v>
+        <v>1177.707664501588</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165792.0503172816</v>
+        <v>165792.0503172815</v>
       </c>
       <c r="C4" t="n">
         <v>165792.0503172815</v>
@@ -26456,10 +26456,10 @@
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>90153.02127971027</v>
+        <v>90153.02127971017</v>
       </c>
       <c r="P4" t="n">
-        <v>90153.02127971027</v>
+        <v>90153.02127971017</v>
       </c>
     </row>
     <row r="5">
@@ -26499,19 +26499,19 @@
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040764</v>
+        <v>53449.25755040763</v>
       </c>
       <c r="P5" t="n">
-        <v>53449.25755040764</v>
+        <v>53449.25755040763</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>269722.1809778914</v>
       </c>
       <c r="C6" t="n">
-        <v>467917.9869696365</v>
+        <v>467917.9869696363</v>
       </c>
       <c r="D6" t="n">
-        <v>467917.9869696366</v>
+        <v>467917.9869696364</v>
       </c>
       <c r="E6" t="n">
-        <v>365248.2734540139</v>
+        <v>365139.7128999127</v>
       </c>
       <c r="F6" t="n">
-        <v>495701.204591726</v>
+        <v>495592.6440376249</v>
       </c>
       <c r="G6" t="n">
-        <v>481283.0643680805</v>
+        <v>481283.0643680812</v>
       </c>
       <c r="H6" t="n">
-        <v>510378.0202410957</v>
+        <v>510378.0202410956</v>
       </c>
       <c r="I6" t="n">
-        <v>510378.0202410948</v>
+        <v>510378.0202410954</v>
       </c>
       <c r="J6" t="n">
-        <v>294863.7065196838</v>
+        <v>294755.1459655816</v>
       </c>
       <c r="K6" t="n">
-        <v>495701.204591726</v>
+        <v>495592.6440376246</v>
       </c>
       <c r="L6" t="n">
-        <v>452188.1084950661</v>
+        <v>452188.1084950664</v>
       </c>
       <c r="M6" t="n">
-        <v>464256.099001204</v>
+        <v>464256.0990012039</v>
       </c>
       <c r="N6" t="n">
-        <v>510378.0202410948</v>
+        <v>510378.0202410954</v>
       </c>
       <c r="O6" t="n">
-        <v>482112.2291015383</v>
+        <v>481916.3232580308</v>
       </c>
       <c r="P6" t="n">
-        <v>483289.9367660399</v>
+        <v>483094.0309225321</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
     </row>
     <row r="3">
@@ -26816,22 +26816,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253588</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580627111</v>
+        <v>1.472134580626985</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>60.85145385829748</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>137.9047327956985</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27557,10 +27557,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>76.13417240419864</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>256.1630180411036</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>221.7190298498175</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>144.7464882767041</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.407991256076031</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27839,10 +27839,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>227.9616630572542</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>66.68483209032348</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27864,16 +27864,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>225.0611505551386</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>84.94408651104122</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743167</v>
       </c>
       <c r="M16" t="n">
         <v>93.99127447431644</v>
@@ -28529,7 +28529,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431658</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
         <v>93.99127447431644</v>
@@ -28748,22 +28748,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28994,16 +28994,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29225,14 +29225,14 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
@@ -29243,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29930,7 +29930,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29948,10 +29948,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -30167,7 +30167,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30185,13 +30185,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634529405</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>28.01250026485194</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30422,10 +30422,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529405</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316296</v>
+        <v>74.20952426316288</v>
       </c>
     </row>
   </sheetData>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>199.9647617065631</v>
       </c>
       <c r="M6" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35187,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>417.1838539570837</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35506,7 +35506,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963367</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446907</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>430.1919549249983</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563714</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36290,16 +36290,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,13 +36521,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36539,7 +36539,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>572.7387264437913</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37162,10 +37162,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37235,7 +37235,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37244,10 +37244,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37481,13 +37481,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724876</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257368</v>
+        <v>31.46926427500442</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>583.1944794342759</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37718,10 +37718,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724876</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257368</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100389</v>
+        <v>44.13503679100381</v>
       </c>
       <c r="K43" t="n">
         <v>156.8711819499729</v>
@@ -37946,19 +37946,19 @@
         <v>239.9950190851829</v>
       </c>
       <c r="M43" t="n">
-        <v>262.3828357159549</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381218</v>
+        <v>259.2495586381217</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002418</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P43" t="n">
-        <v>195.2965604011211</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331544</v>
+        <v>77.66628827331536</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>287.7334829729928</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38107,13 +38107,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100389</v>
+        <v>44.13503679100381</v>
       </c>
       <c r="K46" t="n">
         <v>156.8711819499729</v>
@@ -38183,19 +38183,19 @@
         <v>239.9950190851829</v>
       </c>
       <c r="M46" t="n">
-        <v>262.3828357159549</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381218</v>
+        <v>259.2495586381217</v>
       </c>
       <c r="O46" t="n">
-        <v>238.5577738002418</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P46" t="n">
-        <v>195.2965604011211</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331544</v>
+        <v>77.66628827331536</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
